--- a/docs/clip.xlsx
+++ b/docs/clip.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yyc/Documents/Projects/HUGO/herrscher0/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{23F5DA2A-D6A9-C84D-8ECF-875CCE114F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB3AB2B-36AC-EE4B-A188-F3812B7F1573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="10720" windowWidth="28040" windowHeight="17440" activeTab="1"/>
+    <workbookView xWindow="1600" yWindow="2120" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clip" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="447">
   <si>
     <t>https://www.bilibili.com/video/BV1oD4y1L7vs/</t>
   </si>
@@ -1380,7 +1380,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2214,10 +2214,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B139"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
@@ -3345,11 +3345,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D267"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="C268" sqref="C268"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="G141" sqref="G141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3358,7 +3358,7 @@
     <col min="4" max="4" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -3369,11 +3369,8 @@
         <f>IF(B1="","",VLOOKUP(B1,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1d44y1U7gz/</v>
       </c>
-      <c r="D1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3385,7 +3382,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3396,11 +3393,8 @@
         <f>IF(B3="","",VLOOKUP(B3,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1G8411p7CR/</v>
       </c>
-      <c r="D3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3412,7 +3406,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3423,11 +3417,8 @@
         <f>IF(B5="","",VLOOKUP(B5,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1z8411V71L/</v>
       </c>
-      <c r="D5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3439,7 +3430,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3450,11 +3441,8 @@
         <f>IF(B7="","",VLOOKUP(B7,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1Fg411W7M9/</v>
       </c>
-      <c r="D7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3466,7 +3454,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -3477,11 +3465,8 @@
         <f>IF(B9="","",VLOOKUP(B9,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1Xe411F79j/</v>
       </c>
-      <c r="D9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -3493,7 +3478,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -3505,7 +3490,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -3517,7 +3502,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -3528,11 +3513,8 @@
         <f>IF(B13="","",VLOOKUP(B13,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV11d4y1x7Ch/</v>
       </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -3544,7 +3526,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -3556,7 +3538,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3567,11 +3549,8 @@
         <f>IF(B16="","",VLOOKUP(B16,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1U14y1N7t4/</v>
       </c>
-      <c r="D16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3583,7 +3562,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -3594,11 +3573,8 @@
         <f>IF(B18="","",VLOOKUP(B18,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1624y1m7Mh/</v>
       </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -3610,7 +3586,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3622,7 +3598,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3634,7 +3610,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3646,7 +3622,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3658,7 +3634,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3670,7 +3646,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3682,7 +3658,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -3694,7 +3670,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -3706,7 +3682,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -3718,7 +3694,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -3730,7 +3706,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -3742,7 +3718,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -3753,11 +3729,8 @@
         <f>IF(B31="","",VLOOKUP(B31,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV143411X7En/</v>
       </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -3769,7 +3742,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -3781,7 +3754,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -3793,7 +3766,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -3805,7 +3778,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -3817,7 +3790,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -3829,7 +3802,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -3841,7 +3814,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -3853,7 +3826,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -3864,11 +3837,8 @@
         <f>IF(B40="","",VLOOKUP(B40,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1jV4y1c7jV/</v>
       </c>
-      <c r="D40" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -3880,7 +3850,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -3892,7 +3862,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -3903,11 +3873,8 @@
         <f>IF(B43="","",VLOOKUP(B43,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1XR4y1k7LF/</v>
       </c>
-      <c r="D43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -3918,11 +3885,8 @@
         <f>IF(B44="","",VLOOKUP(B44,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1re411N7jp/</v>
       </c>
-      <c r="D44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -3934,7 +3898,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -3946,7 +3910,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>47</v>
       </c>
@@ -3958,7 +3922,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -3970,7 +3934,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>49</v>
       </c>
@@ -3982,7 +3946,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -3994,7 +3958,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -4006,7 +3970,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -4018,7 +3982,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53</v>
       </c>
@@ -4030,7 +3994,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -4042,7 +4006,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -4053,11 +4017,8 @@
         <f>IF(B55="","",VLOOKUP(B55,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV17W4y1K722/</v>
       </c>
-      <c r="D55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -4068,11 +4029,8 @@
         <f>IF(B56="","",VLOOKUP(B56,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1GA411R7dQ/</v>
       </c>
-      <c r="D56" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -4084,7 +4042,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -4095,11 +4053,8 @@
         <f>IF(B58="","",VLOOKUP(B58,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1yA411D7HX/</v>
       </c>
-      <c r="D58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -4111,7 +4066,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -4122,11 +4077,8 @@
         <f>IF(B60="","",VLOOKUP(B60,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV18M41117qp/</v>
       </c>
-      <c r="D60" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -4138,7 +4090,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -4149,11 +4101,8 @@
         <f>IF(B62="","",VLOOKUP(B62,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1EP411T7wZ/</v>
       </c>
-      <c r="D62" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -4165,7 +4114,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -4177,7 +4126,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>65</v>
       </c>
@@ -4189,7 +4138,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -4201,7 +4150,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -4213,7 +4162,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -4225,7 +4174,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>69</v>
       </c>
@@ -4237,7 +4186,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -4249,7 +4198,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -4260,11 +4209,8 @@
         <f>IF(B71="","",VLOOKUP(B71,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV15g41147Dy/</v>
       </c>
-      <c r="D71" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -4276,7 +4222,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>73</v>
       </c>
@@ -4288,7 +4234,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -4300,7 +4246,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -4312,7 +4258,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -4324,7 +4270,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>77</v>
       </c>
@@ -4335,11 +4281,8 @@
         <f>IF(B77="","",VLOOKUP(B77,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1j8411V72q/</v>
       </c>
-      <c r="D77" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -4351,7 +4294,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -4363,7 +4306,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -4375,7 +4318,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>81</v>
       </c>
@@ -4387,7 +4330,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>82</v>
       </c>
@@ -4399,7 +4342,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>83</v>
       </c>
@@ -4411,7 +4354,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>84</v>
       </c>
@@ -4423,7 +4366,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>85</v>
       </c>
@@ -4435,7 +4378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>86</v>
       </c>
@@ -4447,7 +4390,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>87</v>
       </c>
@@ -4458,11 +4401,8 @@
         <f>IF(B87="","",VLOOKUP(B87,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1RP4y1X7A8/</v>
       </c>
-      <c r="D87" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>88</v>
       </c>
@@ -4474,7 +4414,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>89</v>
       </c>
@@ -4485,11 +4425,8 @@
         <f>IF(B89="","",VLOOKUP(B89,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1MM41167yM/</v>
       </c>
-      <c r="D89" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>90</v>
       </c>
@@ -4501,7 +4438,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>91</v>
       </c>
@@ -4512,11 +4449,8 @@
         <f>IF(B91="","",VLOOKUP(B91,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1q841157cP/</v>
       </c>
-      <c r="D91" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>92</v>
       </c>
@@ -4528,7 +4462,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>93</v>
       </c>
@@ -4540,7 +4474,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>94</v>
       </c>
@@ -4552,7 +4486,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>95</v>
       </c>
@@ -4564,7 +4498,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>96</v>
       </c>
@@ -4575,11 +4509,8 @@
         <f>IF(B96="","",VLOOKUP(B96,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1EG4y1V7nu/</v>
       </c>
-      <c r="D96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>97</v>
       </c>
@@ -4591,7 +4522,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>98</v>
       </c>
@@ -4602,11 +4533,8 @@
         <f>IF(B98="","",VLOOKUP(B98,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1nG411u7gJ/</v>
       </c>
-      <c r="D98" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>99</v>
       </c>
@@ -4617,11 +4545,8 @@
         <f>IF(B99="","",VLOOKUP(B99,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1a8411G7Sy/</v>
       </c>
-      <c r="D99" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>100</v>
       </c>
@@ -4633,7 +4558,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>101</v>
       </c>
@@ -4645,7 +4570,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>102</v>
       </c>
@@ -4657,7 +4582,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>103</v>
       </c>
@@ -4669,7 +4594,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>104</v>
       </c>
@@ -4681,7 +4606,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>105</v>
       </c>
@@ -4693,7 +4618,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>106</v>
       </c>
@@ -4705,7 +4630,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>107</v>
       </c>
@@ -4717,7 +4642,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>108</v>
       </c>
@@ -4729,7 +4654,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>109</v>
       </c>
@@ -4741,7 +4666,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>110</v>
       </c>
@@ -4753,7 +4678,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>111</v>
       </c>
@@ -4764,11 +4689,8 @@
         <f>IF(B111="","",VLOOKUP(B111,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1wP411g7Sy/</v>
       </c>
-      <c r="D111" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>112</v>
       </c>
@@ -4779,11 +4701,8 @@
         <f>IF(B112="","",VLOOKUP(B112,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1jG4y1G7jR/</v>
       </c>
-      <c r="D112" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>113</v>
       </c>
@@ -4795,7 +4714,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>114</v>
       </c>
@@ -4807,7 +4726,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>115</v>
       </c>
@@ -4819,7 +4738,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>116</v>
       </c>
@@ -4831,7 +4750,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>117</v>
       </c>
@@ -4843,7 +4762,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>118</v>
       </c>
@@ -4855,7 +4774,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>119</v>
       </c>
@@ -4867,7 +4786,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>120</v>
       </c>
@@ -4879,7 +4798,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>121</v>
       </c>
@@ -4890,11 +4809,8 @@
         <f>IF(B121="","",VLOOKUP(B121,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1nP4y1X7qv/</v>
       </c>
-      <c r="D121" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>122</v>
       </c>
@@ -4906,7 +4822,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>123</v>
       </c>
@@ -4918,7 +4834,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>124</v>
       </c>
@@ -4930,7 +4846,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>125</v>
       </c>
@@ -4942,7 +4858,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>126</v>
       </c>
@@ -4954,7 +4870,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>127</v>
       </c>
@@ -4966,7 +4882,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>128</v>
       </c>
@@ -4978,7 +4894,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>129</v>
       </c>
@@ -4990,7 +4906,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>130</v>
       </c>
@@ -5002,7 +4918,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>131</v>
       </c>
@@ -5014,7 +4930,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>132</v>
       </c>
@@ -5026,7 +4942,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>133</v>
       </c>
@@ -5037,11 +4953,8 @@
         <f>IF(B133="","",VLOOKUP(B133,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV11P411T7Kh/</v>
       </c>
-      <c r="D133" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>134</v>
       </c>
@@ -5053,7 +4966,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>135</v>
       </c>
@@ -5065,7 +4978,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>136</v>
       </c>
@@ -5077,7 +4990,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>137</v>
       </c>
@@ -5089,7 +5002,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>138</v>
       </c>
@@ -5100,11 +5013,8 @@
         <f>IF(B138="","",VLOOKUP(B138,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1c841157Z7/</v>
       </c>
-      <c r="D138" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>139</v>
       </c>
@@ -5116,7 +5026,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>140</v>
       </c>
@@ -5128,7 +5038,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>141</v>
       </c>
@@ -5140,7 +5050,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>142</v>
       </c>
@@ -5152,7 +5062,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>143</v>
       </c>
@@ -5163,11 +5073,8 @@
         <f>IF(B143="","",VLOOKUP(B143,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1TR4y1y786/</v>
       </c>
-      <c r="D143" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>144</v>
       </c>
@@ -5179,7 +5086,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>145</v>
       </c>
@@ -5191,7 +5098,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>146</v>
       </c>
@@ -5203,7 +5110,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>147</v>
       </c>
@@ -5215,7 +5122,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>148</v>
       </c>
@@ -5226,11 +5133,8 @@
         <f>IF(B148="","",VLOOKUP(B148,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1844y1S7W7/</v>
       </c>
-      <c r="D148" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>149</v>
       </c>
@@ -5242,7 +5146,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>150</v>
       </c>
@@ -5253,11 +5157,8 @@
         <f>IF(B150="","",VLOOKUP(B150,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1rP4y197of/</v>
       </c>
-      <c r="D150" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>151</v>
       </c>
@@ -5268,11 +5169,8 @@
         <f>IF(B151="","",VLOOKUP(B151,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV15e4y1378C/</v>
       </c>
-      <c r="D151" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>152</v>
       </c>
@@ -5284,7 +5182,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>153</v>
       </c>
@@ -5295,11 +5193,8 @@
         <f>IF(B153="","",VLOOKUP(B153,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1wK411z7uU/</v>
       </c>
-      <c r="D153" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>154</v>
       </c>
@@ -5311,7 +5206,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>155</v>
       </c>
@@ -5323,7 +5218,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>156</v>
       </c>
@@ -5335,7 +5230,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>157</v>
       </c>
@@ -5347,7 +5242,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>158</v>
       </c>
@@ -5359,7 +5254,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>159</v>
       </c>
@@ -5370,11 +5265,8 @@
         <f>IF(B159="","",VLOOKUP(B159,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1bK411X7x6/</v>
       </c>
-      <c r="D159" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>160</v>
       </c>
@@ -5386,7 +5278,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>161</v>
       </c>
@@ -5398,7 +5290,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>162</v>
       </c>
@@ -5410,7 +5302,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>163</v>
       </c>
@@ -5421,11 +5313,8 @@
         <f>IF(B163="","",VLOOKUP(B163,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1wK41167oG/</v>
       </c>
-      <c r="D163" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>164</v>
       </c>
@@ -5436,11 +5325,8 @@
         <f>IF(B164="","",VLOOKUP(B164,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1124y1S7vE/</v>
       </c>
-      <c r="D164" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>165</v>
       </c>
@@ -5452,7 +5338,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>166</v>
       </c>
@@ -5464,7 +5350,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>167</v>
       </c>
@@ -5475,11 +5361,8 @@
         <f>IF(B167="","",VLOOKUP(B167,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV12G4y197cQ/</v>
       </c>
-      <c r="D167" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>168</v>
       </c>
@@ -5491,7 +5374,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>169</v>
       </c>
@@ -5502,11 +5385,8 @@
         <f>IF(B169="","",VLOOKUP(B169,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1aP4y1B7Mg/</v>
       </c>
-      <c r="D169" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>170</v>
       </c>
@@ -5517,11 +5397,8 @@
         <f>IF(B170="","",VLOOKUP(B170,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1e84y1x7u8/</v>
       </c>
-      <c r="D170" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>171</v>
       </c>
@@ -5533,7 +5410,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>172</v>
       </c>
@@ -5544,11 +5421,8 @@
         <f>IF(B172="","",VLOOKUP(B172,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1SW4y1u7DW/</v>
       </c>
-      <c r="D172" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>173</v>
       </c>
@@ -5560,7 +5434,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>174</v>
       </c>
@@ -5572,7 +5446,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>175</v>
       </c>
@@ -5584,7 +5458,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>176</v>
       </c>
@@ -5596,7 +5470,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>177</v>
       </c>
@@ -5608,7 +5482,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>178</v>
       </c>
@@ -5620,7 +5494,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>179</v>
       </c>
@@ -5632,7 +5506,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>180</v>
       </c>
@@ -5644,7 +5518,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>181</v>
       </c>
@@ -5656,7 +5530,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>182</v>
       </c>
@@ -5668,7 +5542,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>183</v>
       </c>
@@ -5680,7 +5554,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>184</v>
       </c>
@@ -5692,7 +5566,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>185</v>
       </c>
@@ -5703,11 +5577,8 @@
         <f>IF(B185="","",VLOOKUP(B185,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1tK411R7kZ/</v>
       </c>
-      <c r="D185" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>186</v>
       </c>
@@ -5719,7 +5590,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>187</v>
       </c>
@@ -5731,7 +5602,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>188</v>
       </c>
@@ -5743,7 +5614,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>189</v>
       </c>
@@ -5755,7 +5626,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>190</v>
       </c>
@@ -5767,7 +5638,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>191</v>
       </c>
@@ -5779,7 +5650,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>192</v>
       </c>
@@ -5791,7 +5662,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>193</v>
       </c>
@@ -5803,7 +5674,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>194</v>
       </c>
@@ -5814,11 +5685,8 @@
         <f>IF(B194="","",VLOOKUP(B194,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1584y1k7Fb/</v>
       </c>
-      <c r="D194" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>195</v>
       </c>
@@ -5830,7 +5698,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>196</v>
       </c>
@@ -5841,11 +5709,8 @@
         <f>IF(B196="","",VLOOKUP(B196,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1qd4y1x7Vn/</v>
       </c>
-      <c r="D196" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>197</v>
       </c>
@@ -5857,7 +5722,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>198</v>
       </c>
@@ -5869,7 +5734,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>199</v>
       </c>
@@ -5881,7 +5746,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>200</v>
       </c>
@@ -5893,7 +5758,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>201</v>
       </c>
@@ -5905,7 +5770,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>202</v>
       </c>
@@ -5917,7 +5782,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>203</v>
       </c>
@@ -5929,7 +5794,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>204</v>
       </c>
@@ -5941,7 +5806,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>205</v>
       </c>
@@ -5953,7 +5818,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>206</v>
       </c>
@@ -5964,11 +5829,8 @@
         <f>IF(B206="","",VLOOKUP(B206,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1UY411m7jz/</v>
       </c>
-      <c r="D206" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>207</v>
       </c>
@@ -5980,7 +5842,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>208</v>
       </c>
@@ -5992,7 +5854,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>209</v>
       </c>
@@ -6004,7 +5866,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>210</v>
       </c>
@@ -6016,7 +5878,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>211</v>
       </c>
@@ -6027,11 +5889,8 @@
         <f>IF(B211="","",VLOOKUP(B211,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1E14y1K7Wm/</v>
       </c>
-      <c r="D211" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>212</v>
       </c>
@@ -6043,7 +5902,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>213</v>
       </c>
@@ -6055,7 +5914,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>214</v>
       </c>
@@ -6066,11 +5925,8 @@
         <f>IF(B214="","",VLOOKUP(B214,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1n84y167jP/</v>
       </c>
-      <c r="D214" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>215</v>
       </c>
@@ -6082,7 +5938,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>216</v>
       </c>
@@ -6094,7 +5950,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>217</v>
       </c>
@@ -6106,7 +5962,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>218</v>
       </c>
@@ -6118,7 +5974,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>219</v>
       </c>
@@ -6130,7 +5986,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>220</v>
       </c>
@@ -6141,11 +5997,8 @@
         <f>IF(B220="","",VLOOKUP(B220,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV11e4y1u7Ac/</v>
       </c>
-      <c r="D220" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>221</v>
       </c>
@@ -6157,7 +6010,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>222</v>
       </c>
@@ -6169,7 +6022,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>223</v>
       </c>
@@ -6181,7 +6034,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>224</v>
       </c>
@@ -6193,7 +6046,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>225</v>
       </c>
@@ -6205,7 +6058,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>226</v>
       </c>
@@ -6217,7 +6070,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>227</v>
       </c>
@@ -6229,7 +6082,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>228</v>
       </c>
@@ -6241,7 +6094,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>229</v>
       </c>
@@ -6253,7 +6106,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>230</v>
       </c>
@@ -6265,7 +6118,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>231</v>
       </c>
@@ -6277,7 +6130,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>232</v>
       </c>
@@ -6289,7 +6142,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>233</v>
       </c>
@@ -6301,7 +6154,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>234</v>
       </c>
@@ -6313,7 +6166,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>235</v>
       </c>
@@ -6324,11 +6177,8 @@
         <f>IF(B235="","",VLOOKUP(B235,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1x84y1k7Jx/</v>
       </c>
-      <c r="D235" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>236</v>
       </c>
@@ -6339,11 +6189,8 @@
         <f>IF(B236="","",VLOOKUP(B236,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV16W4y1T7VB/</v>
       </c>
-      <c r="D236" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>237</v>
       </c>
@@ -6354,11 +6201,8 @@
         <f>IF(B237="","",VLOOKUP(B237,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1pP4y1q77H/</v>
       </c>
-      <c r="D237" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>238</v>
       </c>
@@ -6370,7 +6214,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>239</v>
       </c>
@@ -6382,7 +6226,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>240</v>
       </c>
@@ -6393,11 +6237,8 @@
         <f>IF(B240="","",VLOOKUP(B240,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1EP4y1X7GH/</v>
       </c>
-      <c r="D240" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>241</v>
       </c>
@@ -6409,7 +6250,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>242</v>
       </c>
@@ -6421,7 +6262,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>243</v>
       </c>
@@ -6432,11 +6273,8 @@
         <f>IF(B243="","",VLOOKUP(B243,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1cG411u7C7/</v>
       </c>
-      <c r="D243" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>244</v>
       </c>
@@ -6448,7 +6286,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>245</v>
       </c>
@@ -6460,7 +6298,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>246</v>
       </c>
@@ -6471,11 +6309,8 @@
         <f>IF(B246="","",VLOOKUP(B246,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1g8411j7WF/</v>
       </c>
-      <c r="D246" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>247</v>
       </c>
@@ -6487,7 +6322,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>248</v>
       </c>
@@ -6499,7 +6334,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>249</v>
       </c>
@@ -6511,7 +6346,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>250</v>
       </c>
@@ -6523,7 +6358,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>251</v>
       </c>
@@ -6534,11 +6369,8 @@
         <f>IF(B251="","",VLOOKUP(B251,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1Dg411b7LQ/</v>
       </c>
-      <c r="D251" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>252</v>
       </c>
@@ -6550,7 +6382,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>253</v>
       </c>
@@ -6561,11 +6393,8 @@
         <f>IF(B253="","",VLOOKUP(B253,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1Q8411G7QH/</v>
       </c>
-      <c r="D253" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>254</v>
       </c>
@@ -6577,7 +6406,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>255</v>
       </c>
@@ -6588,11 +6417,8 @@
         <f>IF(B255="","",VLOOKUP(B255,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV14R4y167zG/</v>
       </c>
-      <c r="D255" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>256</v>
       </c>
@@ -6604,7 +6430,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>257</v>
       </c>
@@ -6616,7 +6442,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>258</v>
       </c>
@@ -6628,7 +6454,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>259</v>
       </c>
@@ -6639,11 +6465,8 @@
         <f>IF(B259="","",VLOOKUP(B259,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1UP411K7Wo/</v>
       </c>
-      <c r="D259" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>260</v>
       </c>
@@ -6655,7 +6478,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>261</v>
       </c>
@@ -6667,7 +6490,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>262</v>
       </c>
@@ -6679,7 +6502,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>263</v>
       </c>
@@ -6690,11 +6513,8 @@
         <f>IF(B263="","",VLOOKUP(B263,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1q8411J7ts/</v>
       </c>
-      <c r="D263" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>264</v>
       </c>
@@ -6706,7 +6526,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>265</v>
       </c>
@@ -6717,11 +6537,8 @@
         <f>IF(B265="","",VLOOKUP(B265,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1Xe411F7jh/</v>
       </c>
-      <c r="D265" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>266</v>
       </c>
@@ -6733,7 +6550,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>267</v>
       </c>
@@ -6743,9 +6560,6 @@
       <c r="C267" t="str">
         <f>IF(B267="","",VLOOKUP(B267,clip!A:B,2,FALSE))</f>
         <v>https://www.bilibili.com/video/BV1NA411X7Ms/</v>
-      </c>
-      <c r="D267" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
